--- a/excel/finished/烧结/6烧结工艺卡录入.xlsx
+++ b/excel/finished/烧结/6烧结工艺卡录入.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
-    <t xml:space="preserve">  5号烧结机操业工艺卡</t>
+    <t xml:space="preserve">  6号烧结机操业工艺卡</t>
   </si>
   <si>
     <t>发布人</t>
@@ -70,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,6 +106,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="65"/>
@@ -115,6 +199,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -123,117 +229,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,188 +244,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,6 +617,71 @@
       </top>
       <bottom style="medium">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,45 +704,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -692,177 +718,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,7 +1341,7 @@
   <dimension ref="B1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
